--- a/biology/Botanique/Jean-Christophe_Pintaud/Jean-Christophe_Pintaud.xlsx
+++ b/biology/Botanique/Jean-Christophe_Pintaud/Jean-Christophe_Pintaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Christophe Pintaud (1970-2015) est un botaniste français.
 Il est chercheur principal de l'Institut de recherche pour le développement (IRD) de Montpellier.
@@ -513,11 +525,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est né à Nice, région qui abrite le seul palmier indigène de France, Chamaerops humilis, et il disait que son enfance là-bas lui a inspiré ses futures recherches, notamment à travers les visites fréquentes qu'il a faites aux collections de palmiers sur les Riviera française et italienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est né à Nice, région qui abrite le seul palmier indigène de France, Chamaerops humilis, et il disait que son enfance là-bas lui a inspiré ses futures recherches, notamment à travers les visites fréquentes qu'il a faites aux collections de palmiers sur les Riviera française et italienne.
 Décès
-Il est mort accidentellement à Lima au Pérou, le 10 août 2015[2].
+Il est mort accidentellement à Lima au Pérou, le 10 août 2015.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean-c. Pintaud, gloria Galeano, henrik Balslev, rodrigo Bernal, finn Borchsenius, evandro Ferreira, jean-j. de Granville, kember Mejía, betty Millán, mónica Moraes, larry Noblick, fred w. Stauffer, francis Kahn. 2008. Las palmeras de América del Sur: diversidad, distribución e historia evolutiva (The palms of South America: diversity, distribution and evolutionary history). Rev. peru biol. 15 (1): 7-30
 Donald R. Hodel et Jean-Christophe Pintaud, « The palms of New Caledonia - Les palmiers de Nouvelle-Calédonie. », Publications des scientifiques de l'IRD, Nong Nooch Tropical Garden : Allen Press ; K. Tansacha,‎ 1998, p. 119 (lire en ligne)</t>
@@ -577,7 +593,9 @@
           <t>Liste des plantes décrites par Jean-Christophe Pintaud</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Attalea pacensis M.Moraes &amp; Pintaud, (2016).
 Basselinia moorei Pintaud &amp; F.W.Stauffer, (2011).
@@ -620,7 +638,9 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>C'est en son honneur que fut nommée une nouvelle espèce de Calamus par William J. Baker et John Dransfield en 2017 : 
  Calamus pintaudii    W.J.Baker &amp; J.Dransf. (2017)</t>
